--- a/docentes/Velasco Sánchez David - Estadisticos 20211.xlsx
+++ b/docentes/Velasco Sánchez David - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="33">
   <si>
     <t>Mat</t>
   </si>
@@ -80,6 +80,42 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>ROBLES</t>
+  </si>
+  <si>
+    <t>VENTURA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>ROSALES</t>
+  </si>
+  <si>
+    <t>CRISTIAN FERNANDO</t>
+  </si>
+  <si>
+    <t>ISRAEL</t>
+  </si>
+  <si>
+    <t>SINAI ANTONIO</t>
+  </si>
+  <si>
+    <t>GUSTAVO</t>
   </si>
 </sst>
 </file>
@@ -483,16 +519,19 @@
         <v>34</v>
       </c>
       <c r="D2">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>70.59</v>
+      </c>
+      <c r="H2">
+        <v>7.6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -506,16 +545,19 @@
         <v>31</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>67.73999999999999</v>
+      </c>
+      <c r="H3">
+        <v>7.3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -581,16 +623,19 @@
         <v>33</v>
       </c>
       <c r="D6">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>63.64</v>
+      </c>
+      <c r="H6">
+        <v>6.6</v>
       </c>
     </row>
   </sheetData>
@@ -649,7 +694,7 @@
         <v>34</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -672,7 +717,7 @@
         <v>31</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -741,7 +786,7 @@
         <v>33</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -803,16 +848,19 @@
         <v>34</v>
       </c>
       <c r="D2">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>70.59</v>
+      </c>
+      <c r="H2">
+        <v>7.6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -826,16 +874,19 @@
         <v>31</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>67.73999999999999</v>
+      </c>
+      <c r="H3">
+        <v>7.3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -901,16 +952,19 @@
         <v>33</v>
       </c>
       <c r="D6">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>63.64</v>
+      </c>
+      <c r="H6">
+        <v>6.6</v>
       </c>
     </row>
   </sheetData>
@@ -920,7 +974,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -953,6 +1007,98 @@
         <v>20</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>21330051920162</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>20330051920284</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>21330051920207</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>21330051920213</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Velasco Sánchez David - Estadisticos 20211.xlsx
+++ b/docentes/Velasco Sánchez David - Estadisticos 20211.xlsx
@@ -568,10 +568,10 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -580,7 +580,7 @@
         <v>18</v>
       </c>
       <c r="G4">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H4">
         <v>7</v>
@@ -594,10 +594,10 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -606,7 +606,7 @@
         <v>24</v>
       </c>
       <c r="G5">
-        <v>70.59</v>
+        <v>68.56999999999999</v>
       </c>
       <c r="H5">
         <v>7.1</v>
@@ -734,10 +734,10 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>24</v>
@@ -757,10 +757,10 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E5">
         <v>34</v>
@@ -897,10 +897,10 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -909,7 +909,7 @@
         <v>18</v>
       </c>
       <c r="G4">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H4">
         <v>7</v>
@@ -923,10 +923,10 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -935,7 +935,7 @@
         <v>24</v>
       </c>
       <c r="G5">
-        <v>70.59</v>
+        <v>68.56999999999999</v>
       </c>
       <c r="H5">
         <v>7.1</v>
